--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.33752898233547</v>
+        <v>0.2591653333333333</v>
       </c>
       <c r="H2">
-        <v>3.33752898233547</v>
+        <v>0.777496</v>
       </c>
       <c r="I2">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="J2">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.9779176727478</v>
+        <v>15.38399666666667</v>
       </c>
       <c r="N2">
-        <v>14.9779176727478</v>
+        <v>46.15199</v>
       </c>
       <c r="O2">
-        <v>0.492739849634214</v>
+        <v>0.4758482082241769</v>
       </c>
       <c r="P2">
-        <v>0.492739849634214</v>
+        <v>0.475848208224177</v>
       </c>
       <c r="Q2">
-        <v>49.98923432783042</v>
+        <v>3.986998624115556</v>
       </c>
       <c r="R2">
-        <v>49.98923432783042</v>
+        <v>35.88298761704</v>
       </c>
       <c r="S2">
-        <v>0.2073170252687527</v>
+        <v>0.009214883901166728</v>
       </c>
       <c r="T2">
-        <v>0.2073170252687527</v>
+        <v>0.00921488390116673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.33752898233547</v>
+        <v>0.2591653333333333</v>
       </c>
       <c r="H3">
-        <v>3.33752898233547</v>
+        <v>0.777496</v>
       </c>
       <c r="I3">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="J3">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.2011382981308</v>
+        <v>13.20665333333333</v>
       </c>
       <c r="N3">
-        <v>13.2011382981308</v>
+        <v>39.61996</v>
       </c>
       <c r="O3">
-        <v>0.4342877990214041</v>
+        <v>0.4084999796523088</v>
       </c>
       <c r="P3">
-        <v>0.4342877990214041</v>
+        <v>0.4084999796523088</v>
       </c>
       <c r="Q3">
-        <v>44.05918166983029</v>
+        <v>3.422706713351111</v>
       </c>
       <c r="R3">
-        <v>44.05918166983029</v>
+        <v>30.80436042016</v>
       </c>
       <c r="S3">
-        <v>0.1827237124630151</v>
+        <v>0.007910673658251134</v>
       </c>
       <c r="T3">
-        <v>0.1827237124630151</v>
+        <v>0.007910673658251134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.33752898233547</v>
+        <v>0.2591653333333333</v>
       </c>
       <c r="H4">
-        <v>3.33752898233547</v>
+        <v>0.777496</v>
       </c>
       <c r="I4">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="J4">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.697392156155862</v>
+        <v>0.8020063333333333</v>
       </c>
       <c r="N4">
-        <v>0.697392156155862</v>
+        <v>2.406019</v>
       </c>
       <c r="O4">
-        <v>0.02294263552974103</v>
+        <v>0.02480716064688274</v>
       </c>
       <c r="P4">
-        <v>0.02294263552974103</v>
+        <v>0.02480716064688274</v>
       </c>
       <c r="Q4">
-        <v>2.327566533223613</v>
+        <v>0.2078522387137777</v>
       </c>
       <c r="R4">
-        <v>2.327566533223613</v>
+        <v>1.870670148424</v>
       </c>
       <c r="S4">
-        <v>0.00965296180810629</v>
+        <v>0.0004803950111143911</v>
       </c>
       <c r="T4">
-        <v>0.00965296180810629</v>
+        <v>0.0004803950111143911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.33752898233547</v>
+        <v>0.2591653333333333</v>
       </c>
       <c r="H5">
-        <v>3.33752898233547</v>
+        <v>0.777496</v>
       </c>
       <c r="I5">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="J5">
-        <v>0.4207433708125184</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.52076387817818</v>
+        <v>1.128914</v>
       </c>
       <c r="N5">
-        <v>1.52076387817818</v>
+        <v>3.386742</v>
       </c>
       <c r="O5">
-        <v>0.05002971581464093</v>
+        <v>0.03491886508940493</v>
       </c>
       <c r="P5">
-        <v>0.05002971581464093</v>
+        <v>0.03491886508940493</v>
       </c>
       <c r="Q5">
-        <v>5.075593518708564</v>
+        <v>0.2925753731146666</v>
       </c>
       <c r="R5">
-        <v>5.075593518708564</v>
+        <v>2.633178358032</v>
       </c>
       <c r="S5">
-        <v>0.02104967127264439</v>
+        <v>0.0006762099387958181</v>
       </c>
       <c r="T5">
-        <v>0.02104967127264439</v>
+        <v>0.0006762099387958181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.35057170912891</v>
+        <v>0.2591653333333333</v>
       </c>
       <c r="H6">
-        <v>4.35057170912891</v>
+        <v>0.777496</v>
       </c>
       <c r="I6">
-        <v>0.5484519282225331</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="J6">
-        <v>0.5484519282225331</v>
+        <v>0.01936517515859911</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9779176727478</v>
+        <v>1.80806</v>
       </c>
       <c r="N6">
-        <v>14.9779176727478</v>
+        <v>5.42418</v>
       </c>
       <c r="O6">
-        <v>0.492739849634214</v>
+        <v>0.05592578638722655</v>
       </c>
       <c r="P6">
-        <v>0.492739849634214</v>
+        <v>0.05592578638722655</v>
       </c>
       <c r="Q6">
-        <v>65.1625048887185</v>
+        <v>0.4685864725866666</v>
       </c>
       <c r="R6">
-        <v>65.1625048887185</v>
+        <v>4.21727825328</v>
       </c>
       <c r="S6">
-        <v>0.2702441206439656</v>
+        <v>0.00108301264927104</v>
       </c>
       <c r="T6">
-        <v>0.2702441206439656</v>
+        <v>0.00108301264927104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.35057170912891</v>
+        <v>3.993774999999999</v>
       </c>
       <c r="H7">
-        <v>4.35057170912891</v>
+        <v>11.981325</v>
       </c>
       <c r="I7">
-        <v>0.5484519282225331</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="J7">
-        <v>0.5484519282225331</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.2011382981308</v>
+        <v>15.38399666666667</v>
       </c>
       <c r="N7">
-        <v>13.2011382981308</v>
+        <v>46.15199</v>
       </c>
       <c r="O7">
-        <v>0.4342877990214041</v>
+        <v>0.4758482082241769</v>
       </c>
       <c r="P7">
-        <v>0.4342877990214041</v>
+        <v>0.475848208224177</v>
       </c>
       <c r="Q7">
-        <v>57.43249880814602</v>
+        <v>61.44022128741666</v>
       </c>
       <c r="R7">
-        <v>57.43249880814602</v>
+        <v>552.9619915867499</v>
       </c>
       <c r="S7">
-        <v>0.238185980776809</v>
+        <v>0.1420026840744472</v>
       </c>
       <c r="T7">
-        <v>0.238185980776809</v>
+        <v>0.1420026840744473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.35057170912891</v>
+        <v>3.993774999999999</v>
       </c>
       <c r="H8">
-        <v>4.35057170912891</v>
+        <v>11.981325</v>
       </c>
       <c r="I8">
-        <v>0.5484519282225331</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="J8">
-        <v>0.5484519282225331</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.697392156155862</v>
+        <v>13.20665333333333</v>
       </c>
       <c r="N8">
-        <v>0.697392156155862</v>
+        <v>39.61996</v>
       </c>
       <c r="O8">
-        <v>0.02294263552974103</v>
+        <v>0.4084999796523088</v>
       </c>
       <c r="P8">
-        <v>0.02294263552974103</v>
+        <v>0.4084999796523088</v>
       </c>
       <c r="Q8">
-        <v>3.034054584740104</v>
+        <v>52.74440191633332</v>
       </c>
       <c r="R8">
-        <v>3.034054584740104</v>
+        <v>474.6996172469999</v>
       </c>
       <c r="S8">
-        <v>0.01258293269479326</v>
+        <v>0.1219046169606606</v>
       </c>
       <c r="T8">
-        <v>0.01258293269479326</v>
+        <v>0.1219046169606606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.35057170912891</v>
+        <v>3.993774999999999</v>
       </c>
       <c r="H9">
-        <v>4.35057170912891</v>
+        <v>11.981325</v>
       </c>
       <c r="I9">
-        <v>0.5484519282225331</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="J9">
-        <v>0.5484519282225331</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.52076387817818</v>
+        <v>0.8020063333333333</v>
       </c>
       <c r="N9">
-        <v>1.52076387817818</v>
+        <v>2.406019</v>
       </c>
       <c r="O9">
-        <v>0.05002971581464093</v>
+        <v>0.02480716064688274</v>
       </c>
       <c r="P9">
-        <v>0.05002971581464093</v>
+        <v>0.02480716064688274</v>
       </c>
       <c r="Q9">
-        <v>6.616192304667154</v>
+        <v>3.203032843908332</v>
       </c>
       <c r="R9">
-        <v>6.616192304667154</v>
+        <v>28.82729559517499</v>
       </c>
       <c r="S9">
-        <v>0.02743889410696518</v>
+        <v>0.007402956100790399</v>
       </c>
       <c r="T9">
-        <v>0.02743889410696518</v>
+        <v>0.007402956100790399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.24435698669274</v>
+        <v>3.993774999999999</v>
       </c>
       <c r="H10">
-        <v>0.24435698669274</v>
+        <v>11.981325</v>
       </c>
       <c r="I10">
-        <v>0.03080470096494853</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="J10">
-        <v>0.03080470096494853</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>14.9779176727478</v>
+        <v>1.128914</v>
       </c>
       <c r="N10">
-        <v>14.9779176727478</v>
+        <v>3.386742</v>
       </c>
       <c r="O10">
-        <v>0.492739849634214</v>
+        <v>0.03491886508940493</v>
       </c>
       <c r="P10">
-        <v>0.492739849634214</v>
+        <v>0.03491886508940493</v>
       </c>
       <c r="Q10">
-        <v>3.65995882944459</v>
+        <v>4.508628510349999</v>
       </c>
       <c r="R10">
-        <v>3.65995882944459</v>
+        <v>40.57765659315</v>
       </c>
       <c r="S10">
-        <v>0.01517870372149567</v>
+        <v>0.01042049225326279</v>
       </c>
       <c r="T10">
-        <v>0.01517870372149567</v>
+        <v>0.01042049225326279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.24435698669274</v>
+        <v>3.993774999999999</v>
       </c>
       <c r="H11">
-        <v>0.24435698669274</v>
+        <v>11.981325</v>
       </c>
       <c r="I11">
-        <v>0.03080470096494853</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="J11">
-        <v>0.03080470096494853</v>
+        <v>0.2984201298233077</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2011382981308</v>
+        <v>1.80806</v>
       </c>
       <c r="N11">
-        <v>13.2011382981308</v>
+        <v>5.42418</v>
       </c>
       <c r="O11">
-        <v>0.4342877990214041</v>
+        <v>0.05592578638722655</v>
       </c>
       <c r="P11">
-        <v>0.4342877990214041</v>
+        <v>0.05592578638722655</v>
       </c>
       <c r="Q11">
-        <v>3.225790375445369</v>
+        <v>7.220984826499999</v>
       </c>
       <c r="R11">
-        <v>3.225790375445369</v>
+        <v>64.98886343849999</v>
       </c>
       <c r="S11">
-        <v>0.01337810578158002</v>
+        <v>0.01668938043414673</v>
       </c>
       <c r="T11">
-        <v>0.01337810578158002</v>
+        <v>0.01668938043414673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.24435698669274</v>
+        <v>8.810107666666665</v>
       </c>
       <c r="H12">
-        <v>0.24435698669274</v>
+        <v>26.430323</v>
       </c>
       <c r="I12">
-        <v>0.03080470096494853</v>
+        <v>0.6583028522247711</v>
       </c>
       <c r="J12">
-        <v>0.03080470096494853</v>
+        <v>0.6583028522247713</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.697392156155862</v>
+        <v>15.38399666666667</v>
       </c>
       <c r="N12">
-        <v>0.697392156155862</v>
+        <v>46.15199</v>
       </c>
       <c r="O12">
-        <v>0.02294263552974103</v>
+        <v>0.4758482082241769</v>
       </c>
       <c r="P12">
-        <v>0.02294263552974103</v>
+        <v>0.475848208224177</v>
       </c>
       <c r="Q12">
-        <v>0.1704126458213992</v>
+        <v>135.5346669769744</v>
       </c>
       <c r="R12">
-        <v>0.1704126458213992</v>
+        <v>1219.81200279277</v>
       </c>
       <c r="S12">
-        <v>0.000706741026841476</v>
+        <v>0.3132522327000225</v>
       </c>
       <c r="T12">
-        <v>0.000706741026841476</v>
+        <v>0.3132522327000226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.810107666666665</v>
+      </c>
+      <c r="H13">
+        <v>26.430323</v>
+      </c>
+      <c r="I13">
+        <v>0.6583028522247711</v>
+      </c>
+      <c r="J13">
+        <v>0.6583028522247713</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.20665333333333</v>
+      </c>
+      <c r="N13">
+        <v>39.61996</v>
+      </c>
+      <c r="O13">
+        <v>0.4084999796523088</v>
+      </c>
+      <c r="P13">
+        <v>0.4084999796523088</v>
+      </c>
+      <c r="Q13">
+        <v>116.3520377830089</v>
+      </c>
+      <c r="R13">
+        <v>1047.16834004708</v>
+      </c>
+      <c r="S13">
+        <v>0.2689167017388759</v>
+      </c>
+      <c r="T13">
+        <v>0.2689167017388759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.810107666666665</v>
+      </c>
+      <c r="H14">
+        <v>26.430323</v>
+      </c>
+      <c r="I14">
+        <v>0.6583028522247711</v>
+      </c>
+      <c r="J14">
+        <v>0.6583028522247713</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8020063333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.406019</v>
+      </c>
+      <c r="O14">
+        <v>0.02480716064688274</v>
+      </c>
+      <c r="P14">
+        <v>0.02480716064688274</v>
+      </c>
+      <c r="Q14">
+        <v>7.065762146015221</v>
+      </c>
+      <c r="R14">
+        <v>63.59185931413699</v>
+      </c>
+      <c r="S14">
+        <v>0.01633062460944101</v>
+      </c>
+      <c r="T14">
+        <v>0.01633062460944101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.810107666666665</v>
+      </c>
+      <c r="H15">
+        <v>26.430323</v>
+      </c>
+      <c r="I15">
+        <v>0.6583028522247711</v>
+      </c>
+      <c r="J15">
+        <v>0.6583028522247713</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.128914</v>
+      </c>
+      <c r="N15">
+        <v>3.386742</v>
+      </c>
+      <c r="O15">
+        <v>0.03491886508940493</v>
+      </c>
+      <c r="P15">
+        <v>0.03491886508940493</v>
+      </c>
+      <c r="Q15">
+        <v>9.945853886407331</v>
+      </c>
+      <c r="R15">
+        <v>89.51268497766598</v>
+      </c>
+      <c r="S15">
+        <v>0.02298718848480725</v>
+      </c>
+      <c r="T15">
+        <v>0.02298718848480726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.810107666666665</v>
+      </c>
+      <c r="H16">
+        <v>26.430323</v>
+      </c>
+      <c r="I16">
+        <v>0.6583028522247711</v>
+      </c>
+      <c r="J16">
+        <v>0.6583028522247713</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.80806</v>
+      </c>
+      <c r="N16">
+        <v>5.42418</v>
+      </c>
+      <c r="O16">
+        <v>0.05592578638722655</v>
+      </c>
+      <c r="P16">
+        <v>0.05592578638722655</v>
+      </c>
+      <c r="Q16">
+        <v>15.92920326779333</v>
+      </c>
+      <c r="R16">
+        <v>143.36282941014</v>
+      </c>
+      <c r="S16">
+        <v>0.03681610469162452</v>
+      </c>
+      <c r="T16">
+        <v>0.03681610469162452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3200136666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.9600409999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="J17">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.38399666666667</v>
+      </c>
+      <c r="N17">
+        <v>46.15199</v>
+      </c>
+      <c r="O17">
+        <v>0.4758482082241769</v>
+      </c>
+      <c r="P17">
+        <v>0.475848208224177</v>
+      </c>
+      <c r="Q17">
+        <v>4.923089181287778</v>
+      </c>
+      <c r="R17">
+        <v>44.30780263159</v>
+      </c>
+      <c r="S17">
+        <v>0.01137840754854045</v>
+      </c>
+      <c r="T17">
+        <v>0.01137840754854045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3200136666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.9600409999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="J18">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.20665333333333</v>
+      </c>
+      <c r="N18">
+        <v>39.61996</v>
+      </c>
+      <c r="O18">
+        <v>0.4084999796523088</v>
+      </c>
+      <c r="P18">
+        <v>0.4084999796523088</v>
+      </c>
+      <c r="Q18">
+        <v>4.226309557595555</v>
+      </c>
+      <c r="R18">
+        <v>38.03678601836</v>
+      </c>
+      <c r="S18">
+        <v>0.009767987294521227</v>
+      </c>
+      <c r="T18">
+        <v>0.009767987294521227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3200136666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.9600409999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="J19">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8020063333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.406019</v>
+      </c>
+      <c r="O19">
+        <v>0.02480716064688274</v>
+      </c>
+      <c r="P19">
+        <v>0.02480716064688274</v>
+      </c>
+      <c r="Q19">
+        <v>0.2566529874198888</v>
+      </c>
+      <c r="R19">
+        <v>2.309876886779</v>
+      </c>
+      <c r="S19">
+        <v>0.0005931849255369433</v>
+      </c>
+      <c r="T19">
+        <v>0.0005931849255369432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.24435698669274</v>
-      </c>
-      <c r="H13">
-        <v>0.24435698669274</v>
-      </c>
-      <c r="I13">
-        <v>0.03080470096494853</v>
-      </c>
-      <c r="J13">
-        <v>0.03080470096494853</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.52076387817818</v>
-      </c>
-      <c r="N13">
-        <v>1.52076387817818</v>
-      </c>
-      <c r="O13">
-        <v>0.05002971581464093</v>
-      </c>
-      <c r="P13">
-        <v>0.05002971581464093</v>
-      </c>
-      <c r="Q13">
-        <v>0.3716092787427852</v>
-      </c>
-      <c r="R13">
-        <v>0.3716092787427852</v>
-      </c>
-      <c r="S13">
-        <v>0.00154115043503137</v>
-      </c>
-      <c r="T13">
-        <v>0.00154115043503137</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3200136666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.9600409999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="J20">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>1.128914</v>
+      </c>
+      <c r="N20">
+        <v>3.386742</v>
+      </c>
+      <c r="O20">
+        <v>0.03491886508940493</v>
+      </c>
+      <c r="P20">
+        <v>0.03491886508940493</v>
+      </c>
+      <c r="Q20">
+        <v>0.3612679084913333</v>
+      </c>
+      <c r="R20">
+        <v>3.251411176422</v>
+      </c>
+      <c r="S20">
+        <v>0.000834974412539069</v>
+      </c>
+      <c r="T20">
+        <v>0.0008349744125390688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3200136666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.9600409999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="J21">
+        <v>0.02391184279332196</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.80806</v>
+      </c>
+      <c r="N21">
+        <v>5.42418</v>
+      </c>
+      <c r="O21">
+        <v>0.05592578638722655</v>
+      </c>
+      <c r="P21">
+        <v>0.05592578638722655</v>
+      </c>
+      <c r="Q21">
+        <v>0.5786039101533332</v>
+      </c>
+      <c r="R21">
+        <v>5.207435191379999</v>
+      </c>
+      <c r="S21">
+        <v>0.001337288612184267</v>
+      </c>
+      <c r="T21">
+        <v>0.001337288612184266</v>
       </c>
     </row>
   </sheetData>
